--- a/results/mp/logistic/corona/confidence/168/masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,114 +40,120 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>saudi</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>empty</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -157,36 +163,36 @@
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
@@ -199,130 +205,133 @@
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>god</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>funny</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>boost</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
@@ -331,64 +340,64 @@
     <t>safety</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>keep</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
     <t>your</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>for</t>
   </si>
 </sst>
 </file>
@@ -746,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -815,13 +824,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -865,13 +874,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8013698630136986</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -883,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -907,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,31 +942,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L5">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>55</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="L5">
-        <v>17</v>
-      </c>
-      <c r="M5">
-        <v>17</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -965,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -983,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1007,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1015,13 +1024,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1033,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1065,13 +1074,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1083,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1107,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1115,13 +1124,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1133,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1157,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1165,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1183,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.8350785340314136</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L10">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1204,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1215,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.835509138381201</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1257,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1265,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1283,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1307,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1315,13 +1324,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6538461538461539</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1333,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1357,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1365,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6521739130434783</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1383,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1407,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1415,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6086956521739131</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1433,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.796875</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L15">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M15">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1457,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1465,13 +1474,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1483,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.7931034482758621</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1507,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1515,13 +1524,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5769230769230769</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1533,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.7926829268292683</v>
+        <v>0.78125</v>
       </c>
       <c r="L17">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1557,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1565,13 +1574,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.559322033898305</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1583,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K18">
         <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1607,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1615,13 +1624,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5490196078431373</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1633,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1657,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1665,28 +1674,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5483870967741935</v>
+        <v>0.575</v>
       </c>
       <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>17</v>
       </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>14</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K20">
         <v>0.7692307692307693</v>
@@ -1715,13 +1724,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5271317829457365</v>
+        <v>0.5562015503875969</v>
       </c>
       <c r="C21">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D21">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1733,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0.76875</v>
+        <v>0.7625</v>
       </c>
       <c r="L21">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M21">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1757,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1765,13 +1774,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.525</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1783,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K22">
-        <v>0.7659574468085106</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1807,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1815,13 +1824,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5238095238095238</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C23">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>0.7605633802816901</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L23">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1857,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1865,13 +1874,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5161290322580645</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1883,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1936,16 +1945,16 @@
         <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>0.7291666666666666</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1957,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1965,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4838709677419355</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1983,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K26">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2007,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2015,13 +2024,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4832214765100671</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C27">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2033,19 +2042,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K27">
-        <v>0.7209302325581395</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2057,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2065,38 +2074,38 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.44</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28">
+        <v>0.6875</v>
+      </c>
+      <c r="L28">
         <v>33</v>
       </c>
-      <c r="D28">
+      <c r="M28">
         <v>33</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>42</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L28">
-        <v>45</v>
-      </c>
-      <c r="M28">
-        <v>45</v>
-      </c>
       <c r="N28">
         <v>1</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2115,13 +2124,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4181818181818182</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2133,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29">
-        <v>0.7037037037037037</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2157,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2165,13 +2174,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4107142857142857</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2183,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>0.6857142857142857</v>
+        <v>0.675</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2207,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2215,13 +2224,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.40625</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2233,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K31">
-        <v>0.6785714285714286</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2257,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2265,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3916666666666667</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="C32">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D32">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2283,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2307,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2315,13 +2324,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2333,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2357,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2365,13 +2374,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3636363636363636</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2383,19 +2392,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K34">
-        <v>0.6617647058823529</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L34">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2407,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>115</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2415,13 +2424,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3333333333333333</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2433,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K35">
-        <v>0.625</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2457,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2465,13 +2474,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2483,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K36">
-        <v>0.6153846153846154</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2507,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2515,13 +2524,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2777777777777778</v>
+        <v>0.3</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2533,19 +2542,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K37">
-        <v>0.6086956521739131</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2557,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2565,13 +2574,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.253968253968254</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C38">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2583,19 +2592,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K38">
-        <v>0.6071428571428571</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2607,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2615,13 +2624,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2125</v>
+        <v>0.25</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2633,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K39">
-        <v>0.6071428571428571</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2657,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2665,13 +2674,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1715817694369973</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C40">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2683,19 +2692,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>309</v>
+        <v>60</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K40">
-        <v>0.5957446808510638</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L40">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2707,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2715,13 +2724,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.08</v>
+        <v>0.2125</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2733,19 +2742,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>0.5898305084745763</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L41">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="M41">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2757,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2765,49 +2774,49 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01808785529715762</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C42">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>64</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>309</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42">
+        <v>0.58</v>
+      </c>
+      <c r="L42">
+        <v>29</v>
+      </c>
+      <c r="M42">
+        <v>29</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>21</v>
-      </c>
-      <c r="D42">
-        <v>21</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1140</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42">
-        <v>0.5774058577405857</v>
-      </c>
-      <c r="L42">
-        <v>138</v>
-      </c>
-      <c r="M42">
-        <v>138</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2815,49 +2824,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01602023608768971</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2334</v>
+        <v>280</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K43">
-        <v>0.5714285714285714</v>
+        <v>0.5782312925170068</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="M43">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>30</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2865,37 +2874,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01485714285714286</v>
+        <v>0.01679586563307494</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E44">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="F44">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>862</v>
+        <v>3044</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K44">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2907,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2915,37 +2924,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.0145255003227889</v>
+        <v>0.01482326111744584</v>
       </c>
       <c r="C45">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E45">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="F45">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3053</v>
+        <v>864</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K45">
-        <v>0.5600000000000001</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2957,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2965,37 +2974,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0140597539543058</v>
+        <v>0.01312447078746825</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E46">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
       <c r="F46">
-        <v>0.89</v>
+        <v>0.65</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1122</v>
+        <v>2331</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K46">
-        <v>0.5056179775280899</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3007,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3015,37 +3024,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.01029962546816479</v>
+        <v>0.01230228471001757</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="F47">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2114</v>
+        <v>1124</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K47">
-        <v>0.4901960784313725</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3057,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3065,37 +3074,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0078294910830796</v>
+        <v>0.01206896551724138</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>0.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F48">
-        <v>0.64</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2281</v>
+        <v>1146</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K48">
-        <v>0.4814814814814815</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3107,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3115,37 +3124,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.007450523864959255</v>
+        <v>0.01123069723912026</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="F49">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>4263</v>
+        <v>2113</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K49">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3157,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3165,37 +3174,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.00726832222895215</v>
+        <v>0.00782608695652174</v>
       </c>
       <c r="C50">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="F50">
-        <v>0.46</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>4917</v>
+        <v>2282</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K50">
-        <v>0.4285714285714285</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3207,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3215,37 +3224,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006431494835314753</v>
+        <v>0.007213881848313512</v>
       </c>
       <c r="C51">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D51">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E51">
+        <v>0.49</v>
+      </c>
+      <c r="F51">
         <v>0.51</v>
       </c>
-      <c r="F51">
-        <v>0.49</v>
-      </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>5098</v>
+        <v>5092</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K51">
-        <v>0.3835616438356164</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3257,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3265,37 +3274,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.006193228736581338</v>
+        <v>0.006657252370385313</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D52">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E52">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="F52">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>2407</v>
+        <v>4924</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K52">
-        <v>0.3389830508474576</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3307,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3315,31 +3324,31 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005672864796722345</v>
+        <v>0.006510113926993723</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E53">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="F53">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>3155</v>
+        <v>4273</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K53">
-        <v>0.2948717948717949</v>
+        <v>0.359375</v>
       </c>
       <c r="L53">
         <v>23</v>
@@ -3357,21 +3366,45 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.005785123966942148</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>39</v>
+      </c>
+      <c r="E54">
+        <v>0.64</v>
+      </c>
+      <c r="F54">
+        <v>0.36</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2406</v>
+      </c>
       <c r="J54" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K54">
-        <v>0.2807017543859649</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3383,21 +3416,45 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.004730368968779565</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>45</v>
+      </c>
+      <c r="E55">
+        <v>0.67</v>
+      </c>
+      <c r="F55">
+        <v>0.33</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>3156</v>
+      </c>
       <c r="J55" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K55">
-        <v>0.2459016393442623</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3409,21 +3466,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="J56" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K56">
-        <v>0.234375</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3435,41 +3492,41 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K57">
-        <v>0.1666666666666667</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K58">
-        <v>0.1048387096774194</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L58">
         <v>13</v>
@@ -3487,21 +3544,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K59">
-        <v>0.07027027027027027</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3513,99 +3570,99 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>172</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K60">
-        <v>0.04086538461538462</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>399</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K61">
-        <v>0.0342237061769616</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L61">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K62">
-        <v>0.03349282296650718</v>
+        <v>0.04013377926421405</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>404</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K63">
-        <v>0.02925045703839122</v>
+        <v>0.0360576923076923</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3617,38 +3674,38 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>531</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K64">
-        <v>0.01641907740422205</v>
+        <v>0.03473491773308958</v>
       </c>
       <c r="L64">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N64">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>1258</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K65">
         <v>0.01540195341848234</v>
@@ -3674,184 +3731,236 @@
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K66">
-        <v>0.01338912133891213</v>
+        <v>0.01072555205047319</v>
       </c>
       <c r="L66">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N66">
-        <v>0.89</v>
+        <v>0.65</v>
       </c>
       <c r="O66">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>2358</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="K67">
-        <v>0.01324085750315259</v>
+        <v>0.01028383381324558</v>
       </c>
       <c r="L67">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N67">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="O67">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1565</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="K68">
-        <v>0.009465020576131687</v>
+        <v>0.01017214397496088</v>
       </c>
       <c r="L68">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N68">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="O68">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>2407</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="K69">
-        <v>0.008796732642161484</v>
+        <v>0.009623430962343096</v>
       </c>
       <c r="L69">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N69">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="O69">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>3155</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K70">
-        <v>0.008669354838709677</v>
+        <v>0.009416195856873822</v>
       </c>
       <c r="L70">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M70">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="N70">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="O70">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>4917</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K71">
-        <v>0.007681564245810056</v>
+        <v>0.007858150312311102</v>
       </c>
       <c r="L71">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M71">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N71">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="O71">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>4263</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K72">
+        <v>0.007240204429301534</v>
+      </c>
+      <c r="L72">
+        <v>17</v>
+      </c>
+      <c r="M72">
+        <v>48</v>
+      </c>
+      <c r="N72">
+        <v>0.35</v>
+      </c>
+      <c r="O72">
+        <v>0.65</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K72">
-        <v>0.006625097427903352</v>
-      </c>
-      <c r="L72">
-        <v>34</v>
-      </c>
-      <c r="M72">
-        <v>67</v>
-      </c>
-      <c r="N72">
+      <c r="K73">
+        <v>0.00702028081123245</v>
+      </c>
+      <c r="L73">
+        <v>36</v>
+      </c>
+      <c r="M73">
+        <v>73</v>
+      </c>
+      <c r="N73">
+        <v>0.49</v>
+      </c>
+      <c r="O73">
         <v>0.51</v>
       </c>
-      <c r="O72">
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K74">
+        <v>0.006279069767441861</v>
+      </c>
+      <c r="L74">
+        <v>27</v>
+      </c>
+      <c r="M74">
+        <v>55</v>
+      </c>
+      <c r="N74">
         <v>0.49</v>
       </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>5098</v>
+      <c r="O74">
+        <v>0.51</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>4273</v>
       </c>
     </row>
   </sheetData>
